--- a/tm/tm.service/src/test/resources/batchimport/testcase/import-scripted-tc.xlsx
+++ b/tm/tm.service/src/test/resources/batchimport/testcase/import-scripted-tc.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>ACTION</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>TC_SCRIPT</t>
-  </si>
-  <si>
-    <t>SCRIPTED</t>
   </si>
   <si>
     <t>GHERKIN</t>
@@ -662,7 +659,7 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,10 +823,10 @@
         <v>55</v>
       </c>
       <c r="Y2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
